--- a/utilities/test_data.xlsx
+++ b/utilities/test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ly-sonLe\Documents\Github.com\AutomateTestPowerBI\utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ly-son.le\Documents\GitHub\TestAutomationPowerBI\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D5B4AD-5FB9-4B4F-BA8C-831B05A9A06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79874B04-5D53-421F-AD9D-DC9E169BED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27840" yWindow="960" windowWidth="21600" windowHeight="11325" xr2:uid="{94D7ABC0-FB0C-449C-8FE3-51B2C4A70024}"/>
+    <workbookView xWindow="3888" yWindow="2040" windowWidth="17280" windowHeight="8976" xr2:uid="{94D7ABC0-FB0C-449C-8FE3-51B2C4A70024}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Labour Market Outlook Highlights</t>
   </si>
@@ -74,13 +74,82 @@
   </si>
   <si>
     <t>website_title</t>
+  </si>
+  <si>
+    <t>Application Status</t>
+  </si>
+  <si>
+    <t>Testcase04</t>
+  </si>
+  <si>
+    <t>Testcase05</t>
+  </si>
+  <si>
+    <t>Testcase06</t>
+  </si>
+  <si>
+    <t>Testcase07</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Regional Performance</t>
+  </si>
+  <si>
+    <t>% Change YoY</t>
+  </si>
+  <si>
+    <t>report_title</t>
+  </si>
+  <si>
+    <t>Targets Achieved</t>
+  </si>
+  <si>
+    <t>Testcase08</t>
+  </si>
+  <si>
+    <t>Region Comparison</t>
+  </si>
+  <si>
+    <t>Testcase09</t>
+  </si>
+  <si>
+    <t>Inspectors NoW Applications</t>
+  </si>
+  <si>
+    <t>Testcase10</t>
+  </si>
+  <si>
+    <t>Application Delay</t>
+  </si>
+  <si>
+    <t>Testcase11</t>
+  </si>
+  <si>
+    <t>Testcase12</t>
+  </si>
+  <si>
+    <t>NoW Application Distribution</t>
+  </si>
+  <si>
+    <t>NoW-Mine Type Region</t>
+  </si>
+  <si>
+    <t>Supervisor Top 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +160,11 @@
     <font>
       <sz val="9.8000000000000007"/>
       <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
@@ -115,10 +189,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,51 +514,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B7D01B-093B-495C-8F38-418463DD798F}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="168.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.77734375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:3" ht="37.799999999999997">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="1" t="s">
-        <v>10</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/utilities/test_data.xlsx
+++ b/utilities/test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ly-son.le\Documents\GitHub\TestAutomationPowerBI\utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ly-sonLe\Documents\Github.com\TestAutomationPowerBI\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79874B04-5D53-421F-AD9D-DC9E169BED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F66466-5571-4E33-9A2E-495E31B42F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3888" yWindow="2040" windowWidth="17280" windowHeight="8976" xr2:uid="{94D7ABC0-FB0C-449C-8FE3-51B2C4A70024}"/>
+    <workbookView xWindow="4335" yWindow="-12060" windowWidth="17280" windowHeight="8970" xr2:uid="{94D7ABC0-FB0C-449C-8FE3-51B2C4A70024}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
   <si>
     <t>Labour Market Outlook Highlights</t>
   </si>
@@ -106,9 +106,6 @@
     <t>% Change YoY</t>
   </si>
   <si>
-    <t>report_title</t>
-  </si>
-  <si>
     <t>Targets Achieved</t>
   </si>
   <si>
@@ -139,17 +136,176 @@
     <t>NoW Application Distribution</t>
   </si>
   <si>
-    <t>NoW-Mine Type Region</t>
-  </si>
-  <si>
-    <t>Supervisor Top 10</t>
+    <t>page_title</t>
+  </si>
+  <si>
+    <t>Testcase13</t>
+  </si>
+  <si>
+    <t>follow_link</t>
+  </si>
+  <si>
+    <t>Testcase14</t>
+  </si>
+  <si>
+    <t>Testcase15</t>
+  </si>
+  <si>
+    <t>Testcase16</t>
+  </si>
+  <si>
+    <t>Testcase17</t>
+  </si>
+  <si>
+    <t>Testcase18</t>
+  </si>
+  <si>
+    <t>Testcase19</t>
+  </si>
+  <si>
+    <t>Testcase20</t>
+  </si>
+  <si>
+    <t>Testcase21</t>
+  </si>
+  <si>
+    <t>Supervisor Report</t>
+  </si>
+  <si>
+    <t>NoW Application</t>
+  </si>
+  <si>
+    <t>Inspector</t>
+  </si>
+  <si>
+    <t>Region Performance</t>
+  </si>
+  <si>
+    <t>YoY% Comparison</t>
+  </si>
+  <si>
+    <t>NoW-MineType Region</t>
+  </si>
+  <si>
+    <t>Supervisor Top10</t>
+  </si>
+  <si>
+    <t>Check to make sure all expeted pages exist</t>
+  </si>
+  <si>
+    <t>Click on each page and check for broken links</t>
+  </si>
+  <si>
+    <t>Assert Value</t>
+  </si>
+  <si>
+    <t>Testcase22</t>
+  </si>
+  <si>
+    <t>Testcase23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check for details on page named  "NoW-MineType Region" </t>
+  </si>
+  <si>
+    <t>page_link</t>
+  </si>
+  <si>
+    <t>url(#clipPath9225f798-70ee-7249-26c0-64c629953990)</t>
+  </si>
+  <si>
+    <t>NoW Application - Mine Type Comparison</t>
+  </si>
+  <si>
+    <t>Testcase24</t>
+  </si>
+  <si>
+    <t>Testcase25</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>Amendment</t>
+  </si>
+  <si>
+    <t>New Permit</t>
+  </si>
+  <si>
+    <t>Testcase26</t>
+  </si>
+  <si>
+    <t>Testcase27</t>
+  </si>
+  <si>
+    <t>Coal &amp; Mineral</t>
+  </si>
+  <si>
+    <t>Testcase28</t>
+  </si>
+  <si>
+    <t>Testcase29</t>
+  </si>
+  <si>
+    <t>Testcase30</t>
+  </si>
+  <si>
+    <t>Placer Operations</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Testcase31</t>
+  </si>
+  <si>
+    <t>Testcase32</t>
+  </si>
+  <si>
+    <t>Mineral</t>
+  </si>
+  <si>
+    <t>Placer</t>
+  </si>
+  <si>
+    <t>Testcase33</t>
+  </si>
+  <si>
+    <t>Public Land</t>
+  </si>
+  <si>
+    <t>Sand Gravel</t>
+  </si>
+  <si>
+    <t>Permit Application Type</t>
+  </si>
+  <si>
+    <t>Testcase34</t>
+  </si>
+  <si>
+    <t>Testcase35</t>
+  </si>
+  <si>
+    <t>Testcase36</t>
+  </si>
+  <si>
+    <t>visual</t>
+  </si>
+  <si>
+    <t>NoW Application by Region</t>
+  </si>
+  <si>
+    <t>NoW Application by Permit Application Type</t>
+  </si>
+  <si>
+    <t>NoW Application by Site Properties</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,17 +320,31 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,16 +359,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,21 +687,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B7D01B-093B-495C-8F38-418463DD798F}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="13.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="58.77734375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="25.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" ht="36">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -538,8 +712,11 @@
       <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -550,7 +727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="37.799999999999997">
+    <row r="3" spans="1:4" ht="90">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -561,117 +738,482 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="36">
+      <c r="A27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
+      <c r="C27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="36">
+      <c r="A28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="36">
+      <c r="A31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="36">
+      <c r="A33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="36">
+      <c r="A38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="54">
+      <c r="A39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="36">
+      <c r="A40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
